--- a/biology/Zoologie/Contracaecum/Contracaecum.xlsx
+++ b/biology/Zoologie/Contracaecum/Contracaecum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contracaecum est un genre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire).
 Les espèces de nématodes de ce genre sont responsables de l'anisakiase, maladie parasitaire humaine causée par ingestion de certains poissons crus.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Contracaecum aduncum (Rudolphi, 1802).
 Contracaecum benimasu.
